--- a/Assets/Excel/Monster.xlsx
+++ b/Assets/Excel/Monster.xlsx
@@ -24,11 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Monster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -385,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F4" sqref="F4:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -400,39 +396,34 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>28</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
         <v>6</v>
-      </c>
-      <c r="B3">
-        <v>28</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Monster.xlsx
+++ b/Assets/Excel/Monster.xlsx
@@ -46,11 +46,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>슬라임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>초록슬라임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -384,7 +384,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F5"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -411,7 +411,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>28</v>
@@ -423,7 +423,7 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Monster.xlsx
+++ b/Assets/Excel/Monster.xlsx
@@ -384,7 +384,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -417,10 +417,10 @@
         <v>28</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>

--- a/Assets/Excel/Monster.xlsx
+++ b/Assets/Excel/Monster.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MikangMark\Desktop\Git_SlayTheSpire\Sls\Assets\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimjh741963\Desktop\Slay\Sls\Sls\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,11 +46,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>초록슬라임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Slime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Louse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공벌레</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIgSlime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대형슬라임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SmallSlime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중형슬라임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소형슬라임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JawWorm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>턱벌레</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slaver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노예상인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cultist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광신자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FungiBeast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동물하초</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,14 +437,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -414,20 +471,140 @@
         <v>6</v>
       </c>
       <c r="B2">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>64</v>
+      </c>
+      <c r="C3">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
         <v>28</v>
       </c>
-      <c r="C2">
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
         <v>5</v>
       </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>46</v>
+      </c>
+      <c r="C7">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>48</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Excel/Monster.xlsx
+++ b/Assets/Excel/Monster.xlsx
@@ -440,7 +440,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E9" sqref="A1:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/Excel/Monster.xlsx
+++ b/Assets/Excel/Monster.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimjh741963\Desktop\Slay\Sls\Sls\Assets\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MikangMark\Desktop\Git_SlayTheSpire\Sls\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -58,55 +58,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>대형슬라임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SmallSlime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중형슬라임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소형슬라임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JawWorm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>턱벌레</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노예상인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광신자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FungiBeast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동물하초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>BIgSlime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>대형슬라임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SmallSlime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중형슬라임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소형슬라임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JawWorm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>턱벌레</t>
+    <t>Cultist</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Slaver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노예상인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cultist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>광신자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FungiBeast</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동물하초</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -440,7 +440,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="A1:E9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -485,7 +485,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>64</v>
@@ -497,7 +497,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -514,12 +514,12 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -531,12 +531,12 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>40</v>
@@ -548,12 +548,12 @@
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>46</v>
@@ -565,12 +565,12 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>48</v>
@@ -582,12 +582,12 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>22</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Monster.xlsx
+++ b/Assets/Excel/Monster.xlsx
@@ -440,7 +440,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -545,7 +545,7 @@
         <v>11</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
